--- a/CodeSystem-caregiving-codes.xlsx
+++ b/CodeSystem-caregiving-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-16T13:15:00+00:00</t>
+    <t>2025-04-17T22:39:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-caregiving-codes.xlsx
+++ b/CodeSystem-caregiving-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-17T22:39:33+00:00</t>
+    <t>2025-04-21T21:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Caregiving activity codes not found in standard terminologies.</t>
+    <t>Caregiving activity codes, mapping to standard terminologies is TBD.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/CodeSystem-caregiving-codes.xlsx
+++ b/CodeSystem-caregiving-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-21T21:10:00+00:00</t>
+    <t>2025-09-02T17:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
